--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-350950.4656642205</v>
+        <v>-353633.3925776051</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10968710.58674962</v>
+        <v>10968710.58674961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>86.10573764193434</v>
+        <v>267.2627626562004</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>292.311157169123</v>
       </c>
       <c r="F2" t="n">
-        <v>134.5180858275762</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.91690394593681</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752157</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938907</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281404</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.533183649868</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.9068180766435</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958687</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183545</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459917</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>147.7576984147258</v>
       </c>
       <c r="E4" t="n">
-        <v>18.90915288906426</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>380.2585828673455</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>19.48278042788236</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>164.5031820146189</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>131.3255619974415</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>412.9023198566244</v>
       </c>
       <c r="H8" t="n">
-        <v>265.9499229230907</v>
+        <v>111.4489783255654</v>
       </c>
       <c r="I8" t="n">
-        <v>117.933787790675</v>
+        <v>117.9337877906756</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.3205521929348</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.0591804886594</v>
       </c>
       <c r="H9" t="n">
-        <v>99.83145582701486</v>
+        <v>99.83145582701495</v>
       </c>
       <c r="I9" t="n">
-        <v>45.17714646883989</v>
+        <v>45.17714646884018</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.41629921866422</v>
+        <v>20.41629921866473</v>
       </c>
       <c r="S9" t="n">
-        <v>147.8271806796078</v>
+        <v>147.8271806796079</v>
       </c>
       <c r="T9" t="n">
-        <v>194.9879506074857</v>
+        <v>194.9879506074858</v>
       </c>
       <c r="U9" t="n">
         <v>225.8568862471228</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.069824491679</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.2518740693163</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2602978260757</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>85.21927752666103</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.78457952025776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2715658672543</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001851</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>165.3352020122252</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>134.7256132196558</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>48.34531439065397</v>
       </c>
       <c r="F16" t="n">
-        <v>40.15381658332638</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>142.8873577254015</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>93.62264337260652</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3286065175529</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>214.0780236353764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.80184639741307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35.23631477519695</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.81332727248867</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>170.7002125187789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.304982627305</v>
+        <v>1154.707853544815</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.304982627305</v>
+        <v>1154.707853544815</v>
       </c>
       <c r="D2" t="n">
-        <v>1025.329490059695</v>
+        <v>884.7454670234008</v>
       </c>
       <c r="E2" t="n">
-        <v>639.5412374614507</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F2" t="n">
-        <v>503.6643830901616</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669931</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H2" t="n">
-        <v>172.3938901395025</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>241.3408185533483</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>644.8079315733924</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>1060.133027349412</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M2" t="n">
-        <v>1691.850838332722</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N2" t="n">
-        <v>2319.158506392567</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709524</v>
+        <v>2459.410045159359</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959049</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.83093947747</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.83093947747</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U2" t="n">
-        <v>2225.139236222621</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V2" t="n">
-        <v>2225.139236222621</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W2" t="n">
-        <v>1872.370580952507</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X2" t="n">
-        <v>1498.904822691427</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1498.904822691427</v>
+        <v>1541.307693608937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452694</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929656</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>171.360171396508</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>500.788575702317</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L3" t="n">
-        <v>638.0181737180096</v>
+        <v>257.5383372186639</v>
       </c>
       <c r="M3" t="n">
-        <v>1278.563523185113</v>
+        <v>778.7548643839066</v>
       </c>
       <c r="N3" t="n">
-        <v>1477.220264837776</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O3" t="n">
-        <v>2026.656273590498</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920176</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T3" t="n">
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.6910214709215</v>
+        <v>356.2057630587627</v>
       </c>
       <c r="C4" t="n">
-        <v>218.6910214709215</v>
+        <v>356.2057630587627</v>
       </c>
       <c r="D4" t="n">
-        <v>218.6910214709215</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5908670375232</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961286</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
-        <v>153.7488491352221</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>338.5818440360398</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>543.851444755277</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>749.6748095913806</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>923.7697049799788</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>1049.217281578594</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.635600998953</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>922.1576397183558</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>922.1576397183558</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>922.1576397183558</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U4" t="n">
-        <v>922.1576397183558</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V4" t="n">
-        <v>667.4731515124689</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W4" t="n">
-        <v>667.4731515124689</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="X4" t="n">
-        <v>439.4836006144516</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.6910214709215</v>
+        <v>537.8542278890025</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1153.22301588663</v>
+        <v>1273.55221434229</v>
       </c>
       <c r="C5" t="n">
-        <v>1153.22301588663</v>
+        <v>1273.55221434229</v>
       </c>
       <c r="D5" t="n">
-        <v>794.9573172798794</v>
+        <v>1273.55221434229</v>
       </c>
       <c r="E5" t="n">
-        <v>794.9573172798794</v>
+        <v>887.7639617440454</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961286</v>
@@ -4580,10 +4580,10 @@
         <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>2279.135690956216</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2244.351501555402</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.288614211831</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W5" t="n">
-        <v>1913.288614211831</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="X5" t="n">
-        <v>1539.822855950752</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1539.822855950752</v>
+        <v>1660.152054406411</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1094.033005337444</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N6" t="n">
-        <v>1746.206884640153</v>
+        <v>2297.869344338251</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>2457.381657007012</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2566.071284534311</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.4244039565652</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="C7" t="n">
-        <v>371.4244039565652</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="D7" t="n">
-        <v>221.3077645442295</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="E7" t="n">
-        <v>221.3077645442295</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3077645442295</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961286</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961286</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961286</v>
@@ -4756,19 +4756,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U7" t="n">
-        <v>660.8415739935258</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V7" t="n">
-        <v>660.8415739935258</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W7" t="n">
-        <v>371.4244039565652</v>
+        <v>405.2021450633039</v>
       </c>
       <c r="X7" t="n">
-        <v>371.4244039565652</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.4244039565652</v>
+        <v>177.2125941652866</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.521198642746</v>
+        <v>2225.476106588632</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.521198642746</v>
+        <v>1856.513589648221</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.521198642746</v>
+        <v>1498.24789104147</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.521198642746</v>
+        <v>1112.459638443226</v>
       </c>
       <c r="F8" t="n">
-        <v>857.5352938531382</v>
+        <v>701.4737336536184</v>
       </c>
       <c r="G8" t="n">
-        <v>440.4622434929115</v>
+        <v>284.4006832933917</v>
       </c>
       <c r="H8" t="n">
-        <v>171.8259577120118</v>
+        <v>171.8259577120124</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>75.16059781976961</v>
+        <v>75.16059781976827</v>
       </c>
       <c r="K8" t="n">
-        <v>480.4643101821754</v>
+        <v>159.560351736719</v>
       </c>
       <c r="L8" t="n">
-        <v>1035.556032315796</v>
+        <v>714.6520738703366</v>
       </c>
       <c r="M8" t="n">
-        <v>1669.809073386854</v>
+        <v>1348.905114941393</v>
       </c>
       <c r="N8" t="n">
-        <v>2102.898576641424</v>
+        <v>1978.789035762305</v>
       </c>
       <c r="O8" t="n">
-        <v>2275.500284386732</v>
+        <v>2485.692125140042</v>
       </c>
       <c r="P8" t="n">
-        <v>2388.310847806758</v>
+        <v>2598.502688560065</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2479.166631331214</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2479.166631331214</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.355452238061</v>
+        <v>2225.476106588632</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.355452238061</v>
+        <v>2225.476106588632</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.586796967947</v>
+        <v>2225.476106588632</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.121038706867</v>
+        <v>2225.476106588632</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.121038706867</v>
+        <v>2225.476106588632</v>
       </c>
     </row>
     <row r="9">
@@ -4857,61 +4857,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>965.7672227580507</v>
+        <v>965.7672227580512</v>
       </c>
       <c r="C9" t="n">
-        <v>791.3141934769237</v>
+        <v>791.3141934769242</v>
       </c>
       <c r="D9" t="n">
-        <v>642.3797838156725</v>
+        <v>642.3797838156729</v>
       </c>
       <c r="E9" t="n">
-        <v>483.142328810217</v>
+        <v>483.1423288102174</v>
       </c>
       <c r="F9" t="n">
-        <v>336.607770837102</v>
+        <v>336.6077708371023</v>
       </c>
       <c r="G9" t="n">
-        <v>199.1742551919914</v>
+        <v>199.1742551919918</v>
       </c>
       <c r="H9" t="n">
-        <v>98.33440082126933</v>
+        <v>98.33440082126961</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961286</v>
+        <v>172.0900280890858</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3767651829022</v>
+        <v>502.7658737323738</v>
       </c>
       <c r="L9" t="n">
-        <v>889.4156438710845</v>
+        <v>836.1312473968816</v>
       </c>
       <c r="M9" t="n">
-        <v>1088.710276070404</v>
+        <v>1478.633972154372</v>
       </c>
       <c r="N9" t="n">
-        <v>1740.884155373113</v>
+        <v>2130.807851457081</v>
       </c>
       <c r="O9" t="n">
-        <v>2292.158172389254</v>
+        <v>2292.158172389257</v>
       </c>
       <c r="P9" t="n">
-        <v>2402.322963589616</v>
+        <v>2402.322963589618</v>
       </c>
       <c r="Q9" t="n">
-        <v>2634.022527499338</v>
+        <v>2634.022527499339</v>
       </c>
       <c r="R9" t="n">
         <v>2613.400003036041</v>
       </c>
       <c r="S9" t="n">
-        <v>2464.079618511184</v>
+        <v>2464.079618511185</v>
       </c>
       <c r="T9" t="n">
-        <v>2267.122092645037</v>
+        <v>2267.122092645038</v>
       </c>
       <c r="U9" t="n">
         <v>2038.98382370855</v>
@@ -4920,7 +4920,7 @@
         <v>1803.831715476807</v>
       </c>
       <c r="W9" t="n">
-        <v>1549.594358748605</v>
+        <v>1549.594358748606</v>
       </c>
       <c r="X9" t="n">
         <v>1341.742858543073</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961286</v>
+        <v>790.869736992158</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961286</v>
+        <v>621.9335540642511</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961286</v>
+        <v>471.8169146519153</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961286</v>
+        <v>323.9038210695222</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961286</v>
+        <v>177.0138735716119</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961286</v>
+        <v>177.0138735716119</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961286</v>
+        <v>177.0138735716119</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961286</v>
@@ -4963,49 +4963,49 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K10" t="n">
-        <v>154.5013008185179</v>
+        <v>154.5013008185171</v>
       </c>
       <c r="L10" t="n">
-        <v>340.2971748139067</v>
+        <v>340.2971748139049</v>
       </c>
       <c r="M10" t="n">
-        <v>546.5819965327581</v>
+        <v>546.5819965327553</v>
       </c>
       <c r="N10" t="n">
-        <v>753.3964426822356</v>
+        <v>753.3964426822317</v>
       </c>
       <c r="O10" t="n">
-        <v>928.4067620748935</v>
+        <v>928.4067620748887</v>
       </c>
       <c r="P10" t="n">
-        <v>1054.637642053365</v>
+        <v>1054.63764205336</v>
       </c>
       <c r="Q10" t="n">
-        <v>1058.598280132163</v>
+        <v>1058.598280132156</v>
       </c>
       <c r="R10" t="n">
-        <v>1058.598280132163</v>
+        <v>1058.598280132156</v>
       </c>
       <c r="S10" t="n">
-        <v>851.2731548096209</v>
+        <v>1058.598280132156</v>
       </c>
       <c r="T10" t="n">
-        <v>851.2731548096209</v>
+        <v>1058.598280132156</v>
       </c>
       <c r="U10" t="n">
-        <v>562.1213388236858</v>
+        <v>1058.598280132156</v>
       </c>
       <c r="V10" t="n">
-        <v>562.1213388236858</v>
+        <v>1058.598280132156</v>
       </c>
       <c r="W10" t="n">
-        <v>562.1213388236858</v>
+        <v>972.5182018223977</v>
       </c>
       <c r="X10" t="n">
-        <v>334.1317879256685</v>
+        <v>972.5182018223977</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.3493843698526</v>
+        <v>972.5182018223977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614634</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.422574620032</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4394675364385</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
         <v>92.81162322608056</v>
@@ -5039,25 +5039,25 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128779</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5069,22 +5069,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>570.9683475412853</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.986701793413</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.082665192749</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O12" t="n">
-        <v>2286.888151551083</v>
+        <v>2200.595509637359</v>
       </c>
       <c r="P12" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>865.6377590212817</v>
+        <v>867.8413048512243</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7015760933748</v>
+        <v>698.9051219233174</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933748</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="E13" t="n">
         <v>548.7884825109817</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1858.521547305677</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="V13" t="n">
-        <v>1603.83705909979</v>
+        <v>1702.982968616094</v>
       </c>
       <c r="W13" t="n">
-        <v>1314.419889062829</v>
+        <v>1413.565798579134</v>
       </c>
       <c r="X13" t="n">
-        <v>1086.430338164812</v>
+        <v>1185.576247681116</v>
       </c>
       <c r="Y13" t="n">
-        <v>865.6377590212817</v>
+        <v>1049.489769681464</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459564</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180495</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057137</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233206</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919726</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761961</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>527.7722521572593</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>527.7722521572593</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>379.8591585748662</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>379.8591585748662</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,22 +5671,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>878.356899915406</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.506641481895</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.517090583878</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,13 +7193,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>278.7842827623923</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>30.21968338400282</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>345.1708998087252</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>271.7036563660412</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>142.0501052952627</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>28.32808613262446</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384287</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>46.70479923672272</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,19 +8462,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>238.5646844459789</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>337.6781632650819</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>64.80030207271398</v>
+        <v>64.80030207271494</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>5.495976199526297</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>196.4226634613655</v>
       </c>
       <c r="M9" t="n">
-        <v>18.02012177204782</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>456.0686428889621</v>
+        <v>456.0686428889642</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87.42027896448259</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>272.3579599141352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>127.5248097575049</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>50.29152613728908</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>120.8502495361952</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>83.85904013243902</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>98.0886482559152</v>
       </c>
       <c r="F16" t="n">
-        <v>105.2672314396049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>22.63678056686732</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.62417772602132</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.28686650065941</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>48.3947522799763</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>72.44497470121456</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,10 +24886,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>111.1976478713722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.7713260796061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1110698.833972152</v>
+        <v>1110698.833972151</v>
       </c>
     </row>
     <row r="3">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262832.9348752271</v>
+        <v>262832.934875227</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
         <v>280937.9200733107</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="I2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915021</v>
@@ -26353,7 +26353,7 @@
         <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.4137109823</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
-        <v>2.484563083271496e-09</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3106.892043261601</v>
+        <v>3106.892043258264</v>
       </c>
       <c r="E3" t="n">
-        <v>761041.3651381398</v>
+        <v>761041.3651381428</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>11452.26311504134</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>124946.8475185312</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149886.4470932459</v>
+        <v>149886.4470932453</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189255.2671305569</v>
+        <v>189255.2671305576</v>
       </c>
       <c r="E4" t="n">
         <v>6890.891875482008</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707373</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707381</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707372</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707383</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670739</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707381</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707377</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747553</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>86697.16370779427</v>
+        <v>86697.16370779419</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766319.0037664768</v>
+        <v>-766494.2300848878</v>
       </c>
       <c r="C6" t="n">
-        <v>10854.72919340224</v>
+        <v>10854.72919340465</v>
       </c>
       <c r="D6" t="n">
-        <v>8305.296570886334</v>
+        <v>8305.296570889157</v>
       </c>
       <c r="E6" t="n">
-        <v>-587136.4654541495</v>
+        <v>-587182.3704497182</v>
       </c>
       <c r="F6" t="n">
-        <v>163029.0924558466</v>
+        <v>162994.3545304106</v>
       </c>
       <c r="G6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.6176454519</v>
       </c>
       <c r="H6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.6176454521</v>
       </c>
       <c r="I6" t="n">
-        <v>174481.3555708876</v>
+        <v>174446.617645452</v>
       </c>
       <c r="J6" t="n">
-        <v>2120.363170606885</v>
+        <v>2085.62524517106</v>
       </c>
       <c r="K6" t="n">
-        <v>174481.3555708878</v>
+        <v>174446.6176454519</v>
       </c>
       <c r="L6" t="n">
-        <v>174481.3555708878</v>
+        <v>174446.617645452</v>
       </c>
       <c r="M6" t="n">
-        <v>49534.50805235647</v>
+        <v>49499.77012692072</v>
       </c>
       <c r="N6" t="n">
-        <v>171404.3382151829</v>
+        <v>171369.6002897472</v>
       </c>
       <c r="O6" t="n">
-        <v>174481.3555708876</v>
+        <v>174446.6176454519</v>
       </c>
       <c r="P6" t="n">
-        <v>174481.3555708878</v>
+        <v>174446.617645452</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380623</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>597.1038925545183</v>
+        <v>597.1038925545145</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26799,7 +26799,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380623</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.627792216453258</v>
+        <v>3.627792216449362</v>
       </c>
       <c r="E3" t="n">
-        <v>760.9371561618675</v>
+        <v>760.9371561618714</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>501.3837960808462</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>501.3837960808462</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>501.3837960808462</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>268.5773039787486</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>89.61921290313882</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.6518631149661</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0.8577746034865754</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.2665578794171</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176933</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>26.61746287436591</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>231.6720057944183</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>121.7574726434781</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>155.1974363391495</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>48.94160184745454</v>
+        <v>203.4425464449799</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.3205521929344</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.5880212640011</v>
+        <v>212.5880212640012</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9142346341801</v>
       </c>
       <c r="H10" t="n">
-        <v>152.6539330497622</v>
+        <v>152.6539330497623</v>
       </c>
       <c r="I10" t="n">
-        <v>123.0698244916788</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.23332811017296</v>
+        <v>17.23332811017346</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>128.8790331382409</v>
+        <v>128.8790331382412</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.2518740693164</v>
       </c>
       <c r="T10" t="n">
         <v>223.344952879091</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2602978260757</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>201.30372080993</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.800073831837</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198239</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055147</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651519</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937392</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779007</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712514</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074806</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359651</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822501</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426685</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457565</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>149.869117941149</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810492</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.4439864491653</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358591</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.27653349884036</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985296</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182821</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847378</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070419</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512809</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842439</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900638</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947063</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671562</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.948381360745</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080768</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784616</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308293</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897112</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888309</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838206972</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784116</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490345</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790235</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889946</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676919</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441083</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>151.268301771413</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720914</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104742</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937795</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685353</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522773</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390783</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.400417658510625</v>
+        <v>2.400417658510609</v>
       </c>
       <c r="H8" t="n">
-        <v>24.58327734522194</v>
+        <v>24.58327734522178</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54210177973094</v>
+        <v>92.54210177973034</v>
       </c>
       <c r="J8" t="n">
-        <v>203.7324482440163</v>
+        <v>203.732448244015</v>
       </c>
       <c r="K8" t="n">
-        <v>305.3421277287711</v>
+        <v>305.3421277287691</v>
       </c>
       <c r="L8" t="n">
-        <v>378.8039096454157</v>
+        <v>378.8039096454133</v>
       </c>
       <c r="M8" t="n">
-        <v>421.492337179954</v>
+        <v>421.4923371799513</v>
       </c>
       <c r="N8" t="n">
-        <v>428.3125238521974</v>
+        <v>428.3125238521946</v>
       </c>
       <c r="O8" t="n">
-        <v>404.4433707603823</v>
+        <v>404.4433707603797</v>
       </c>
       <c r="P8" t="n">
-        <v>345.1830598159012</v>
+        <v>345.183059815899</v>
       </c>
       <c r="Q8" t="n">
-        <v>259.2181024204894</v>
+        <v>259.2181024204877</v>
       </c>
       <c r="R8" t="n">
-        <v>150.7852357414181</v>
+        <v>150.7852357414172</v>
       </c>
       <c r="S8" t="n">
-        <v>54.69951739331091</v>
+        <v>54.69951739331056</v>
       </c>
       <c r="T8" t="n">
-        <v>10.50782830013027</v>
+        <v>10.5078283001302</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1920334126808499</v>
+        <v>0.1920334126808487</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.284336674551228</v>
+        <v>1.28433667455122</v>
       </c>
       <c r="H9" t="n">
-        <v>12.4039884094816</v>
+        <v>12.40398840948152</v>
       </c>
       <c r="I9" t="n">
-        <v>44.21948638257518</v>
+        <v>44.2194863825749</v>
       </c>
       <c r="J9" t="n">
-        <v>121.3416504671404</v>
+        <v>121.3416504671396</v>
       </c>
       <c r="K9" t="n">
-        <v>207.3922076620727</v>
+        <v>207.3922076620713</v>
       </c>
       <c r="L9" t="n">
-        <v>278.8644169897305</v>
+        <v>278.8644169897287</v>
       </c>
       <c r="M9" t="n">
-        <v>325.4216214422124</v>
+        <v>325.4216214422103</v>
       </c>
       <c r="N9" t="n">
-        <v>334.034563439532</v>
+        <v>334.0345634395298</v>
       </c>
       <c r="O9" t="n">
-        <v>305.57636659816</v>
+        <v>305.576366598158</v>
       </c>
       <c r="P9" t="n">
-        <v>245.2519742833832</v>
+        <v>245.2519742833816</v>
       </c>
       <c r="Q9" t="n">
-        <v>163.9444498953463</v>
+        <v>163.9444498953452</v>
       </c>
       <c r="R9" t="n">
-        <v>79.74153493397891</v>
+        <v>79.7415349339784</v>
       </c>
       <c r="S9" t="n">
-        <v>23.85599042423003</v>
+        <v>23.85599042422988</v>
       </c>
       <c r="T9" t="n">
-        <v>5.17677808733587</v>
+        <v>5.176778087335836</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08449583385205452</v>
+        <v>0.08449583385205398</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.076744724278639</v>
+        <v>1.076744724278633</v>
       </c>
       <c r="H10" t="n">
-        <v>9.573239457677365</v>
+        <v>9.573239457677303</v>
       </c>
       <c r="I10" t="n">
-        <v>32.38065043557946</v>
+        <v>32.38065043557925</v>
       </c>
       <c r="J10" t="n">
-        <v>76.12585200649981</v>
+        <v>76.12585200649931</v>
       </c>
       <c r="K10" t="n">
-        <v>125.0981597843728</v>
+        <v>125.098159784372</v>
       </c>
       <c r="L10" t="n">
-        <v>160.0825747350261</v>
+        <v>160.0825747350251</v>
       </c>
       <c r="M10" t="n">
-        <v>168.784629824878</v>
+        <v>168.7846298248769</v>
       </c>
       <c r="N10" t="n">
-        <v>164.7713085798395</v>
+        <v>164.7713085798385</v>
       </c>
       <c r="O10" t="n">
-        <v>152.1929724825845</v>
+        <v>152.1929724825835</v>
       </c>
       <c r="P10" t="n">
-        <v>130.2273801073001</v>
+        <v>130.2273801072993</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.16268777573227</v>
+        <v>90.16268777573168</v>
       </c>
       <c r="R10" t="n">
-        <v>48.41435823892864</v>
+        <v>48.41435823892832</v>
       </c>
       <c r="S10" t="n">
-        <v>18.76472396765592</v>
+        <v>18.7647239676558</v>
       </c>
       <c r="T10" t="n">
-        <v>4.60063654919055</v>
+        <v>4.600636549190519</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05873153041519859</v>
+        <v>0.05873153041519821</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,25 +31844,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>649.4704730892256</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>447.1326187913569</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>530.5785304507792</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.8462560123214</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>618.3341264639751</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,10 +34214,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391267</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040849</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>419.5202987636565</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730403</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513584</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605633</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537873989</v>
+        <v>142.0725371714034</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.337494971307</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584799</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452616</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714067</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0155045122256</v>
+        <v>526.4813405709523</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067305</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269914</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>381.4911589188672</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105726</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531407</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493108</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295325</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233369</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854527</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369849</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353031</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>313.9380096558278</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35021,19 +35021,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>209.6385268948515</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451607</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>69.67140651144695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>22.68654371733004</v>
+        <v>22.6865437173287</v>
       </c>
       <c r="K8" t="n">
-        <v>409.3976892549553</v>
+        <v>85.25227668378858</v>
       </c>
       <c r="L8" t="n">
-        <v>560.6987092258789</v>
+        <v>560.6987092258764</v>
       </c>
       <c r="M8" t="n">
-        <v>640.6596374455138</v>
+        <v>640.6596374455111</v>
       </c>
       <c r="N8" t="n">
-        <v>437.4641447015854</v>
+        <v>636.2463846675878</v>
       </c>
       <c r="O8" t="n">
-        <v>174.3451593386956</v>
+        <v>512.0233226037749</v>
       </c>
       <c r="P8" t="n">
-        <v>113.9500640606317</v>
+        <v>113.9500640606294</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.2274032059446</v>
+        <v>36.91241254603821</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>120.5950591408817</v>
       </c>
       <c r="K9" t="n">
-        <v>334.0160057002923</v>
+        <v>334.0160057002909</v>
       </c>
       <c r="L9" t="n">
-        <v>511.1503825133155</v>
+        <v>336.73270067122</v>
       </c>
       <c r="M9" t="n">
-        <v>201.3077092922419</v>
+        <v>648.9926512701919</v>
       </c>
       <c r="N9" t="n">
         <v>658.7614942451607</v>
       </c>
       <c r="O9" t="n">
-        <v>556.842441430445</v>
+        <v>162.9801221537135</v>
       </c>
       <c r="P9" t="n">
-        <v>111.277566869053</v>
+        <v>111.2775668690514</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.0399635451738</v>
+        <v>234.0399635451728</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.82866795849</v>
+        <v>102.8286679584891</v>
       </c>
       <c r="L10" t="n">
-        <v>187.6725999953423</v>
+        <v>187.6725999953412</v>
       </c>
       <c r="M10" t="n">
-        <v>208.3685067867186</v>
+        <v>208.3685067867175</v>
       </c>
       <c r="N10" t="n">
-        <v>208.9034809590681</v>
+        <v>208.9034809590671</v>
       </c>
       <c r="O10" t="n">
-        <v>176.7781003966242</v>
+        <v>176.7781003966232</v>
       </c>
       <c r="P10" t="n">
-        <v>127.5059393721936</v>
+        <v>127.5059393721928</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.000644524037881</v>
+        <v>4.000644524037298</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>506.8742286447812</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>313.1582113770266</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>388.4444965287609</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998971</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.86448192629984</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>476.2000925419567</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>313.1582113770268</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,10 +37862,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
